--- a/olise/EuropeanOption.xlsx
+++ b/olise/EuropeanOption.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\blahblahblah\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\olise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686BD22F-F9B8-4686-B55B-A7D0C5A2E70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3190632F-4E2E-4502-A3DF-3563B08F5F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A1A9440-079E-48B2-A0D4-827C7691A225}"/>
   </bookViews>
@@ -16,20 +16,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="d">Sheet1!$B$12</definedName>
-    <definedName name="dt">Sheet1!$B$14</definedName>
-    <definedName name="K">Sheet1!$B$2</definedName>
-    <definedName name="p">Sheet1!$B$9</definedName>
-    <definedName name="Principle">Sheet1!$B$7</definedName>
-    <definedName name="q">Sheet1!$B$10</definedName>
-    <definedName name="rate">Sheet1!$B$6</definedName>
-    <definedName name="S">Sheet1!$B$3</definedName>
-    <definedName name="T">Sheet1!$B$4</definedName>
-    <definedName name="u">Sheet1!$B$11</definedName>
-    <definedName name="vol">Sheet1!$B$5</definedName>
+    <definedName name="d">Sheet1!$B$11</definedName>
+    <definedName name="dt">Sheet1!$B$13</definedName>
+    <definedName name="K">Sheet1!$B$1</definedName>
+    <definedName name="p">Sheet1!$B$8</definedName>
+    <definedName name="Principle">Sheet1!$B$6</definedName>
+    <definedName name="q">Sheet1!$B$9</definedName>
+    <definedName name="rate">Sheet1!$B$5</definedName>
+    <definedName name="S">Sheet1!$B$2</definedName>
+    <definedName name="T">Sheet1!$B$3</definedName>
+    <definedName name="u">Sheet1!$B$10</definedName>
+    <definedName name="vol">Sheet1!$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -167,8 +166,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,13 +194,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>198000</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>167760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>198360</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -257,13 +259,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>60720</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>83880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>61080</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -322,13 +324,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>121800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>52920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122160</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -387,13 +389,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>121800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>52920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122160</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -452,13 +454,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>121800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>52920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122160</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -517,13 +519,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>121800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>52920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122160</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -582,13 +584,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>121800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>52920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122160</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -647,13 +649,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>121800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>52920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122160</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -712,13 +714,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>274080</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>121680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>274440</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -777,13 +779,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>243720</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>174960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>244080</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -842,13 +844,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>350400</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>121680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>350760</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -907,13 +909,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>106560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>381360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -972,13 +974,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>594240</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>98640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>594600</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1705,310 +1707,354 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7B030B-850C-49C3-8EBC-D20968490347}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:Q37"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>60</v>
+      </c>
+    </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
         <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f>(EXP(rate*dt)-d)/(u-d)</f>
+        <v>0.57749319635612428</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <f>(EXP(rate*dt)-d)/(u-d)</f>
-        <v>0.57749319635612428</v>
+        <f>1-p</f>
+        <v>0.42250680364387572</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <f>1-p</f>
-        <v>0.42250680364387572</v>
+        <f>EXP(vol*SQRT(dt))</f>
+        <v>1.2214027581601699</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <f>EXP(vol*SQRT(dt))</f>
-        <v>1.2214027581601699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
         <f>1/u</f>
         <v>0.81873075307798182</v>
       </c>
     </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="B13">
         <f>T/10</f>
         <v>1</v>
       </c>
-      <c r="L14">
-        <f>K15*u</f>
+      <c r="L13">
+        <f>K14*u</f>
         <v>369.45280494653247</v>
       </c>
-      <c r="N14">
-        <f>MAX(L14-S,0)</f>
+      <c r="N13">
+        <f>MAX(L13-S,0)</f>
         <v>319.45280494653247</v>
       </c>
+      <c r="O13">
+        <f>p^10</f>
+        <v>4.1254252294919613E-3</v>
+      </c>
+      <c r="Q13">
+        <f>N13*O13</f>
+        <v>1.3178786611583995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <f>J15*u</f>
+        <v>302.48237322064728</v>
+      </c>
       <c r="O14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="K15">
-        <f>J16*u</f>
-        <v>302.48237322064728</v>
-      </c>
-      <c r="O15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" t="e">
+      <c r="J15">
+        <f>I16*u</f>
+        <v>247.6516212197557</v>
+      </c>
+      <c r="L15">
+        <f>K14*d</f>
+        <v>247.6516212197557</v>
+      </c>
+      <c r="N15">
+        <f>MAX(L15-S,0)</f>
+        <v>197.6516212197557</v>
+      </c>
+      <c r="O15">
+        <f>COMBIN(10,1) * p^9 * q</f>
+        <v>3.0182524025955417E-2</v>
+      </c>
+      <c r="Q15">
         <f>N15*O15</f>
-        <v>#VALUE!</v>
+        <v>5.9656248062343158</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J16">
-        <f>I17*u</f>
-        <v>247.6516212197557</v>
-      </c>
-      <c r="L16">
-        <f>K15*d</f>
-        <v>247.6516212197557</v>
-      </c>
-      <c r="N16">
-        <f>MAX(L16-S,0)</f>
-        <v>197.6516212197557</v>
+      <c r="I16">
+        <f>H17*u</f>
+        <v>202.7599983422337</v>
+      </c>
+      <c r="K16">
+        <f>J17*u</f>
+        <v>202.7599983422337</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I17">
-        <f>H18*u</f>
-        <v>202.7599983422337</v>
-      </c>
-      <c r="K17">
-        <f>J18*u</f>
-        <v>202.7599983422337</v>
+      <c r="H17">
+        <f>G18*u</f>
+        <v>166.00584613682736</v>
+      </c>
+      <c r="J17">
+        <f>I18*u</f>
+        <v>166.00584613682736</v>
+      </c>
+      <c r="L17">
+        <f>K18*u</f>
+        <v>166.00584613682736</v>
+      </c>
+      <c r="N17">
+        <f>MAX(L17-S,0)</f>
+        <v>116.00584613682736</v>
       </c>
       <c r="O17">
-        <f>q*p^9</f>
-        <v>3.0182524025955419E-3</v>
+        <f>COMBIN(10,2) * p^8 * q^2</f>
+        <v>9.9369911622493035E-2</v>
       </c>
       <c r="Q17">
         <f>N17*O17</f>
-        <v>0</v>
+        <v>11.527490678309059</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H18">
-        <f>G19*u</f>
-        <v>166.00584613682736</v>
-      </c>
-      <c r="J18">
-        <f>I19*u</f>
-        <v>166.00584613682736</v>
-      </c>
-      <c r="L18">
-        <f>K19*u</f>
-        <v>166.00584613682736</v>
-      </c>
-      <c r="N18">
-        <f>MAX(L18-S,0)</f>
-        <v>116.00584613682736</v>
+      <c r="G18">
+        <f>F19*u</f>
+        <v>135.91409142295225</v>
+      </c>
+      <c r="I18">
+        <f>H19*u</f>
+        <v>135.91409142295225</v>
+      </c>
+      <c r="K18">
+        <f>J19*u</f>
+        <v>135.91409142295225</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G19">
-        <f>F20*u</f>
-        <v>135.91409142295225</v>
-      </c>
-      <c r="I19">
-        <f>H20*u</f>
-        <v>135.91409142295225</v>
-      </c>
-      <c r="K19">
-        <f>J20*u</f>
-        <v>135.91409142295225</v>
+      <c r="F19">
+        <f>E20*u</f>
+        <v>111.27704642462338</v>
+      </c>
+      <c r="H19">
+        <f>G20*u</f>
+        <v>111.27704642462338</v>
+      </c>
+      <c r="J19">
+        <f>I20*u</f>
+        <v>111.27704642462338</v>
+      </c>
+      <c r="L19">
+        <f>K20*u</f>
+        <v>111.27704642462338</v>
+      </c>
+      <c r="N19">
+        <f>MAX(L19-S,0)</f>
+        <v>61.277046424623379</v>
       </c>
       <c r="O19">
-        <f>p^8 * q^2</f>
-        <v>2.2082202582776227E-3</v>
+        <f>COMBIN(10,3) * p^7 * q^3</f>
+        <v>0.19386993764501786</v>
       </c>
       <c r="Q19">
         <f>N19*O19</f>
-        <v>0</v>
+        <v>11.879777169412598</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F20">
-        <f>E21*u</f>
-        <v>111.27704642462338</v>
-      </c>
-      <c r="H20">
-        <f>G21*u</f>
-        <v>111.27704642462338</v>
-      </c>
-      <c r="J20">
-        <f>I21*u</f>
-        <v>111.27704642462338</v>
-      </c>
-      <c r="L20">
-        <f>K21*u</f>
-        <v>111.27704642462338</v>
-      </c>
-      <c r="N20">
-        <f>MAX(L20-S,0)</f>
-        <v>61.277046424623379</v>
+      <c r="E20">
+        <f>D21*u</f>
+        <v>91.105940019525448</v>
+      </c>
+      <c r="G20">
+        <f>F21*u</f>
+        <v>91.105940019525448</v>
+      </c>
+      <c r="I20">
+        <f>H21*u</f>
+        <v>91.105940019525448</v>
+      </c>
+      <c r="K20">
+        <f>J21*u</f>
+        <v>91.105940019525448</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E21">
-        <f>D22*u</f>
-        <v>91.105940019525448</v>
-      </c>
-      <c r="G21">
-        <f>F22*u</f>
-        <v>91.105940019525448</v>
-      </c>
-      <c r="I21">
-        <f>H22*u</f>
-        <v>91.105940019525448</v>
-      </c>
-      <c r="K21">
-        <f>J22*u</f>
-        <v>91.105940019525448</v>
+      <c r="D21">
+        <f>C22*u</f>
+        <v>74.591234882063517</v>
+      </c>
+      <c r="F21">
+        <f>E22*u</f>
+        <v>74.591234882063517</v>
+      </c>
+      <c r="H21">
+        <f>G22*u</f>
+        <v>74.591234882063517</v>
+      </c>
+      <c r="J21">
+        <f>I22*u</f>
+        <v>74.591234882063517</v>
+      </c>
+      <c r="L21">
+        <f>K22*u</f>
+        <v>74.591234882063517</v>
+      </c>
+      <c r="N21">
+        <f>MAX(L21-S,0)</f>
+        <v>24.591234882063517</v>
       </c>
       <c r="O21">
-        <f>p^7 * q^3</f>
-        <v>1.6155828137084823E-3</v>
+        <f>COMBIN(10,4) * p^6 * q^4</f>
+        <v>0.24821919000827947</v>
       </c>
       <c r="Q21">
         <f>N21*O21</f>
-        <v>0</v>
+        <v>6.1040164037291538</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D22">
-        <f>C23*u</f>
-        <v>74.591234882063517</v>
-      </c>
-      <c r="F22">
-        <f>E23*u</f>
-        <v>74.591234882063517</v>
-      </c>
-      <c r="H22">
-        <f>G23*u</f>
-        <v>74.591234882063517</v>
-      </c>
-      <c r="J22">
-        <f>I23*u</f>
-        <v>74.591234882063517</v>
-      </c>
-      <c r="L22">
-        <f>K23*u</f>
-        <v>74.591234882063517</v>
-      </c>
-      <c r="N22">
-        <f>MAX(L22-S,0)</f>
-        <v>24.591234882063517</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C23">
+      <c r="C22">
         <f>S*u</f>
         <v>61.070137908008491</v>
       </c>
-      <c r="E23">
-        <f>D24*u</f>
+      <c r="E22">
+        <f>D23*u</f>
         <v>61.070137908008491</v>
       </c>
-      <c r="G23">
-        <f>F24*u</f>
+      <c r="G22">
+        <f>F23*u</f>
         <v>61.070137908008491</v>
       </c>
-      <c r="I23">
-        <f>H24*u</f>
+      <c r="I22">
+        <f>H23*u</f>
         <v>61.070137908008491</v>
       </c>
-      <c r="K23">
-        <f>J24*u</f>
+      <c r="K22">
+        <f>J23*u</f>
         <v>61.070137908008491</v>
       </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f>S</f>
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <f>C24*u</f>
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <f>E24*u</f>
+        <v>50</v>
+      </c>
+      <c r="H23">
+        <f>G24*u</f>
+        <v>50</v>
+      </c>
+      <c r="J23">
+        <f>I24*u</f>
+        <v>50</v>
+      </c>
+      <c r="L23">
+        <f>K24*u</f>
+        <v>50</v>
+      </c>
+      <c r="N23">
+        <f>MAX(L23-S,0)</f>
+        <v>0</v>
+      </c>
       <c r="O23">
-        <f>p^6 * q^4</f>
-        <v>1.181996142896569E-3</v>
+        <f>COMBIN(10,5) * q^5 * p^5</f>
+        <v>0.21792318365350283</v>
       </c>
       <c r="Q23">
         <f>N23*O23</f>
@@ -2016,59 +2062,55 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <f>S</f>
-        <v>50</v>
-      </c>
-      <c r="D24">
-        <f>C25*u</f>
-        <v>50</v>
-      </c>
-      <c r="F24">
-        <f>E25*u</f>
-        <v>50</v>
-      </c>
-      <c r="H24">
-        <f>G25*u</f>
-        <v>50</v>
-      </c>
-      <c r="J24">
-        <f>I25*u</f>
-        <v>50</v>
-      </c>
-      <c r="L24">
-        <f>K25*u</f>
-        <v>50</v>
-      </c>
-      <c r="N24">
-        <f>MAX(L24-S,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C25">
+      <c r="C24">
         <f>S*d</f>
         <v>40.936537653899094</v>
       </c>
-      <c r="E25">
-        <f>D26*u</f>
+      <c r="E24">
+        <f>D25*u</f>
         <v>40.936537653899094</v>
       </c>
-      <c r="G25">
-        <f>F26*u</f>
+      <c r="G24">
+        <f>F25*u</f>
         <v>40.936537653899094</v>
       </c>
-      <c r="I25">
-        <f>H26*u</f>
+      <c r="I24">
+        <f>H25*u</f>
         <v>40.936537653899094</v>
       </c>
-      <c r="K25">
-        <f>J26*u</f>
+      <c r="K24">
+        <f>J25*u</f>
         <v>40.936537653899094</v>
       </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f>C24*d</f>
+        <v>33.516002301781967</v>
+      </c>
+      <c r="F25">
+        <f>E26*u</f>
+        <v>33.516002301781967</v>
+      </c>
+      <c r="H25">
+        <f>G26*u</f>
+        <v>33.516002301781967</v>
+      </c>
+      <c r="J25">
+        <f>I26*u</f>
+        <v>33.516002301781967</v>
+      </c>
+      <c r="L25">
+        <f>K26*u</f>
+        <v>33.516002301781967</v>
+      </c>
+      <c r="N25">
+        <f>MAX(L25-S,0)</f>
+        <v>0</v>
+      </c>
       <c r="O25">
-        <f>p^5 * q^5</f>
-        <v>8.6477453830755089E-4</v>
+        <f>COMBIN(10,6) * p^4 * q^6</f>
+        <v>0.132864520232026</v>
       </c>
       <c r="Q25">
         <f>N25*O25</f>
@@ -2076,51 +2118,47 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D26">
-        <f>C25*d</f>
-        <v>33.516002301781967</v>
-      </c>
-      <c r="F26">
-        <f>E27*u</f>
-        <v>33.516002301781967</v>
-      </c>
-      <c r="H26">
-        <f>G27*u</f>
-        <v>33.516002301781967</v>
-      </c>
-      <c r="J26">
-        <f>I27*u</f>
-        <v>33.516002301781967</v>
-      </c>
-      <c r="L26">
-        <f>K27*u</f>
-        <v>33.516002301781967</v>
-      </c>
-      <c r="N26">
-        <f>MAX(L26-S,0)</f>
+      <c r="E26">
+        <f>D25*d</f>
+        <v>27.440581804701321</v>
+      </c>
+      <c r="G26">
+        <f>F27*u</f>
+        <v>27.440581804701321</v>
+      </c>
+      <c r="I26">
+        <f>H27*u</f>
+        <v>27.440581804701321</v>
+      </c>
+      <c r="K26">
+        <f>J27*u</f>
+        <v>27.440581804701321</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <f>E26*d</f>
+        <v>22.466448205861077</v>
+      </c>
+      <c r="H27">
+        <f>G28*u</f>
+        <v>22.466448205861077</v>
+      </c>
+      <c r="J27">
+        <f>I28*u</f>
+        <v>22.466448205861077</v>
+      </c>
+      <c r="L27">
+        <f>K28*u</f>
+        <v>22.466448205861077</v>
+      </c>
+      <c r="N27">
+        <f>MAX(L27-S,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E27">
-        <f>D26*d</f>
-        <v>27.440581804701321</v>
-      </c>
-      <c r="G27">
-        <f>F28*u</f>
-        <v>27.440581804701321</v>
-      </c>
-      <c r="I27">
-        <f>H28*u</f>
-        <v>27.440581804701321</v>
-      </c>
-      <c r="K27">
-        <f>J28*u</f>
-        <v>27.440581804701321</v>
-      </c>
       <c r="O27">
-        <f>p^4 * q^6</f>
-        <v>6.3268819158107626E-4</v>
+        <f>COMBIN(10,7) * p^3 * q^7</f>
+        <v>5.5546642048395413E-2</v>
       </c>
       <c r="Q27">
         <f>N27*O27</f>
@@ -2128,43 +2166,39 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F28">
-        <f>E27*d</f>
-        <v>22.466448205861077</v>
-      </c>
-      <c r="H28">
-        <f>G29*u</f>
-        <v>22.466448205861077</v>
-      </c>
-      <c r="J28">
-        <f>I29*u</f>
-        <v>22.466448205861077</v>
-      </c>
-      <c r="L28">
-        <f>K29*u</f>
-        <v>22.466448205861077</v>
-      </c>
-      <c r="N28">
-        <f>MAX(L28-S,0)</f>
+      <c r="G28">
+        <f>F27*d</f>
+        <v>18.393972058572114</v>
+      </c>
+      <c r="I28">
+        <f>H29*u</f>
+        <v>18.393972058572114</v>
+      </c>
+      <c r="K28">
+        <f>J29*u</f>
+        <v>18.393972058572114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f>G28*d</f>
+        <v>15.059710595610103</v>
+      </c>
+      <c r="J29">
+        <f>I30*u</f>
+        <v>15.059710595610103</v>
+      </c>
+      <c r="L29">
+        <f>K30*u</f>
+        <v>15.059710595610103</v>
+      </c>
+      <c r="N29">
+        <f>MAX(L29-S,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G29">
-        <f>F28*d</f>
-        <v>18.393972058572114</v>
-      </c>
-      <c r="I29">
-        <f>H30*u</f>
-        <v>18.393972058572114</v>
-      </c>
-      <c r="K29">
-        <f>J30*u</f>
-        <v>18.393972058572114</v>
-      </c>
       <c r="O29">
-        <f>p^3 * q^7</f>
-        <v>4.6288868373662846E-4</v>
+        <f>COMBIN(10,8) * p^2 * q^8</f>
+        <v>1.523968225931193E-2</v>
       </c>
       <c r="Q29">
         <f>N29*O29</f>
@@ -2172,35 +2206,31 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H30">
-        <f>G29*d</f>
-        <v>15.059710595610103</v>
-      </c>
-      <c r="J30">
-        <f>I31*u</f>
-        <v>15.059710595610103</v>
-      </c>
-      <c r="L30">
-        <f>K31*u</f>
-        <v>15.059710595610103</v>
-      </c>
-      <c r="N30">
-        <f>MAX(L30-S,0)</f>
+      <c r="I30">
+        <f>H29*d</f>
+        <v>12.329848197080322</v>
+      </c>
+      <c r="K30">
+        <f>J31*u</f>
+        <v>12.329848197080322</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <f>I30*d</f>
+        <v>10.094825899732768</v>
+      </c>
+      <c r="L31">
+        <f>K32*u</f>
+        <v>10.094825899732768</v>
+      </c>
+      <c r="N31">
+        <f>MAX(L31-S,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I31">
-        <f>H30*d</f>
-        <v>12.329848197080322</v>
-      </c>
-      <c r="K31">
-        <f>J32*u</f>
-        <v>12.329848197080322</v>
-      </c>
       <c r="O31">
-        <f>p^8 * q^2</f>
-        <v>2.2082202582776227E-3</v>
+        <f>COMBIN(10,9) * p * q^9</f>
+        <v>2.4777086285492165E-3</v>
       </c>
       <c r="Q31">
         <f>N31*O31</f>
@@ -2208,69 +2238,49 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J32">
-        <f>I31*d</f>
-        <v>10.094825899732768</v>
-      </c>
-      <c r="L32">
-        <f>K33*u</f>
-        <v>10.094825899732768</v>
-      </c>
-      <c r="N32">
-        <f>MAX(L32-S,0)</f>
+      <c r="K32">
+        <f>J31*d</f>
+        <v>8.2649444110793251</v>
+      </c>
+    </row>
+    <row r="33" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <f>K32*d</f>
+        <v>6.7667641618306327</v>
+      </c>
+      <c r="N33">
+        <f>MAX(L33-S,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="11:17" x14ac:dyDescent="0.3">
-      <c r="K33">
-        <f>J32*d</f>
-        <v>8.2649444110793251</v>
-      </c>
       <c r="O33">
-        <f>p * q^9</f>
-        <v>2.4777086285492165E-4</v>
+        <f>q^10</f>
+        <v>1.8127464697672687E-4</v>
       </c>
       <c r="Q33">
         <f>N33*O33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="11:17" x14ac:dyDescent="0.3">
-      <c r="L34">
-        <f>K33*d</f>
-        <v>6.7667641618306327</v>
-      </c>
-      <c r="N34">
-        <f>MAX(L34-S,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" t="e">
-        <f>SUM(Q15:Q33)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="11:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="12:18" x14ac:dyDescent="0.3">
       <c r="O35">
-        <f>SUM(O15:O33)</f>
-        <v>1.2440394152236012E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="11:17" x14ac:dyDescent="0.3">
-      <c r="P36" t="s">
+        <f>SUM(O13:O33)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35">
+        <f>SUM(Q13:Q33) * Principle</f>
+        <v>3679478.7718843524</v>
+      </c>
+    </row>
+    <row r="36" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="Q36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q36" t="e">
-        <f>Q34*Principle</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="37" spans="11:17" x14ac:dyDescent="0.3">
-      <c r="P37" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q37" t="e">
-        <f xml:space="preserve"> 1/(1+ rate) * Q36</f>
-        <v>#VALUE!</v>
+      <c r="R36">
+        <f xml:space="preserve"> 1/(1+ rate) * R35</f>
+        <v>3504265.4970327164</v>
       </c>
     </row>
   </sheetData>
